--- a/10班＿スケジュール.xlsx
+++ b/10班＿スケジュール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9995" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9587"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>項目名</t>
   </si>
@@ -32,12 +32,126 @@
     <t>担当者</t>
   </si>
   <si>
+    <t>マップ　</t>
+  </si>
+  <si>
+    <t>プレイヤーと豆腐の動き場をつくる</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>プレイヤーの動き</t>
+  </si>
+  <si>
+    <t>プレイヤーの動きのプログラム</t>
+  </si>
+  <si>
+    <t>栗田</t>
+  </si>
+  <si>
+    <t>豆腐動き</t>
+  </si>
+  <si>
+    <t>豆腐の動きのプログラム</t>
+  </si>
+  <si>
+    <t>宮下</t>
+  </si>
+  <si>
+    <t>豆腐を落とす</t>
+  </si>
+  <si>
+    <t>豆腐と鉄豆腐の落下</t>
+  </si>
+  <si>
+    <t>当たり判定</t>
+  </si>
+  <si>
+    <t>プレイヤーと豆腐の当たり判定</t>
+  </si>
+  <si>
+    <t>豆腐で挟む　</t>
+  </si>
+  <si>
+    <t>豆腐がプレイヤーの挟む判定</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>タイトル画面シーン作成</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>説明画面・選択画面(形だけ)</t>
+  </si>
+  <si>
+    <t>説明画面・選択画面のシーン作成</t>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+  </si>
+  <si>
+    <t>リザルト画面のシーンと動き作成</t>
+  </si>
+  <si>
+    <t>キャラクターのイラスト</t>
+  </si>
+  <si>
+    <t>キャラクターのイラストの作成</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>BGMとSE</t>
+  </si>
+  <si>
+    <t>ゲームで使う音楽を探す</t>
+  </si>
+  <si>
+    <t>画面イラスト</t>
+  </si>
+  <si>
+    <t>各シーンで使うイラストの作成</t>
+  </si>
+  <si>
+    <t>アニメーション</t>
+  </si>
+  <si>
+    <t>豆腐とキャラクターのアニメーション作成</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>動画</t>
+  </si>
+  <si>
+    <t>プレイ画面録画と編集</t>
+  </si>
+  <si>
+    <t>細かいところ</t>
+  </si>
+  <si>
+    <t>最終素材組み合わせと完成チェック</t>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
     <t>日付</t>
   </si>
   <si>
-    <t>スコト</t>
-  </si>
-  <si>
     <t>オリジナル2Dアクションゲーム企画作成</t>
   </si>
   <si>
@@ -50,10 +164,43 @@
     <t>仕様書、スケジュールチェック</t>
   </si>
   <si>
+    <t>予備日</t>
+  </si>
+  <si>
     <t>αチェック</t>
   </si>
   <si>
+    <t>基本的なキャラクターの戦闘　豆腐の移動</t>
+  </si>
+  <si>
+    <t>が出来てれば最高</t>
+  </si>
+  <si>
+    <t>豆腐とキャラクターを完成させる</t>
+  </si>
+  <si>
+    <t>選択画面の完成と細かいところ</t>
+  </si>
+  <si>
+    <t>ここまでに画像と音楽が出来ていてほしい</t>
+  </si>
+  <si>
     <t>βチェック（成績1次評価）</t>
+  </si>
+  <si>
+    <t>プレイ会</t>
+  </si>
+  <si>
+    <t>デバッグ</t>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>予備</t>
+  </si>
+  <si>
+    <t>プレゼン</t>
   </si>
 </sst>
 </file>
@@ -61,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,10 +239,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -103,6 +261,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,8 +293,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,47 +368,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,8 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,44 +408,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -284,12 +442,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,19 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,150 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -643,45 +801,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,8 +831,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,23 +855,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,154 +886,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -949,21 +1083,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="36" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="3" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F77"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1318,109 +1452,259 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="13"/>
@@ -1512,342 +1796,6 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,31 +1807,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E153"/>
+  <dimension ref="B1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.37962962962963" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="40.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="26.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="43.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="7.87962962962963" customWidth="1"/>
+    <col min="7" max="7" width="26.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="43.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" ht="14.55" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -1894,7 +1842,7 @@
         <v>43433</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1935,7 +1883,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" ht="13.95" spans="2:5">
+    <row r="9" ht="14.55" spans="2:5">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -1946,7 +1894,7 @@
         <v>43439</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1987,7 +1935,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" ht="13.95" spans="2:5">
+    <row r="17" ht="14.55" spans="2:5">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -1998,7 +1946,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2012,19 +1960,19 @@
     <row r="20" spans="2:5">
       <c r="B20" s="4"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5">
@@ -2039,7 +1987,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" ht="13.95" spans="2:5">
+    <row r="25" ht="14.55" spans="2:5">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -2049,8 +1997,8 @@
       <c r="B26" s="4">
         <v>43446</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>9</v>
+      <c r="C26" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2091,7 +2039,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" ht="13.95" spans="2:5">
+    <row r="33" ht="14.55" spans="2:5">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -2101,8 +2049,8 @@
       <c r="B34" s="4">
         <v>43447</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>10</v>
+      <c r="C34" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2149,31 +2097,56 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:7">
       <c r="B42" s="4">
         <v>43453</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="4"/>
@@ -2203,27 +2176,51 @@
       <c r="B50" s="4">
         <v>43454</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="C53" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="4"/>
@@ -2253,7 +2250,9 @@
       <c r="B58" s="4">
         <v>43109</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
@@ -2304,26 +2303,29 @@
         <v>43110</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="4"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="4"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="4"/>
-      <c r="C69"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
@@ -2355,27 +2357,51 @@
       <c r="B74" s="4">
         <v>43116</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="6"/>
+      <c r="C74" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="4"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="C75" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="4"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="C76" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="4"/>
-      <c r="C77"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="C77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="8">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="4"/>
@@ -2405,15 +2431,27 @@
       <c r="B82" s="4">
         <v>43117</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="6"/>
+      <c r="C82" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="4"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="C83" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="8">
+        <v>3</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="4"/>
@@ -2423,7 +2461,6 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="4"/>
-      <c r="C85"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
@@ -2455,15 +2492,27 @@
       <c r="B90" s="4">
         <v>43123</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="6"/>
+      <c r="C90" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="8">
+        <v>3</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="4"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="C91" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="8">
+        <v>3</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="4"/>
@@ -2473,7 +2522,6 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="4"/>
-      <c r="C93"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
@@ -2505,13 +2553,17 @@
       <c r="B98" s="4">
         <v>43124</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="D98" s="8"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="4"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
@@ -2523,7 +2575,6 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="4"/>
-      <c r="C101"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
@@ -2552,10 +2603,12 @@
       <c r="E105" s="11"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="4">
+      <c r="B106" s="18">
         <v>43130</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="D106" s="8"/>
       <c r="E106" s="6"/>
     </row>
@@ -2573,7 +2626,6 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="4"/>
-      <c r="C109"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
@@ -2606,7 +2658,7 @@
         <v>43131</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="6"/>
@@ -2625,7 +2677,6 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="4"/>
-      <c r="C117"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
@@ -2657,7 +2708,9 @@
       <c r="B122" s="4">
         <v>43137</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="D122" s="8"/>
       <c r="E122" s="6"/>
     </row>
@@ -2675,7 +2728,6 @@
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="4"/>
-      <c r="C125"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
@@ -2707,7 +2759,9 @@
       <c r="B130" s="4">
         <v>43138</v>
       </c>
-      <c r="C130" s="13"/>
+      <c r="C130" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="D130" s="8"/>
       <c r="E130" s="6"/>
     </row>
@@ -2725,7 +2779,6 @@
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="4"/>
-      <c r="C133"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
@@ -2755,9 +2808,11 @@
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="4">
-        <v>43144</v>
-      </c>
-      <c r="C138" s="13"/>
+        <v>43145</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D138" s="8"/>
       <c r="E138" s="6"/>
     </row>
@@ -2775,7 +2830,6 @@
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="4"/>
-      <c r="C141"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
@@ -2804,10 +2858,12 @@
       <c r="E145" s="11"/>
     </row>
     <row r="146" spans="2:5">
-      <c r="B146" s="4">
-        <v>43148</v>
-      </c>
-      <c r="C146" s="13"/>
+      <c r="B146" s="18">
+        <v>43149</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D146" s="8"/>
       <c r="E146" s="6"/>
     </row>
@@ -2825,7 +2881,6 @@
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="4"/>
-      <c r="C149"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
@@ -2853,8 +2908,161 @@
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
     </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="18">
+        <v>43151</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="4"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="4"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="4"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="4"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="4"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="4"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" ht="14.55" spans="2:5">
+      <c r="B161" s="9"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="18">
+        <v>43159</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="4"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="4"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="4"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="4"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="4"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="4"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" ht="14.55" spans="2:5">
+      <c r="B169" s="9"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="18">
+        <v>43160</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170" s="8"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="4"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="4"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="4"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="4"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="4"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="4"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" ht="14.55" spans="2:5">
+      <c r="B177" s="9"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B18:B25"/>
@@ -2874,9 +3082,12 @@
     <mergeCell ref="B130:B137"/>
     <mergeCell ref="B138:B145"/>
     <mergeCell ref="B146:B153"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="B162:B169"/>
+    <mergeCell ref="B170:B177"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>